--- a/Hoàng/Chấm công/04-2025/Chấm công tháng 04-2025 - Nguyễn Bá Đức Hoàng (đợt 2).xlsx
+++ b/Hoàng/Chấm công/04-2025/Chấm công tháng 04-2025 - Nguyễn Bá Đức Hoàng (đợt 2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA-TN\Hoàng\Chấm công\04-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCB57C0-B31E-4CD2-8972-E1B88F0F8523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF307A55-16B5-4720-9205-7D446B792A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="GIờ làm thêm" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'GIờ làm thêm'!$A$1:$G$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'GIờ làm thêm'!$A$1:$G$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>THỎA THUẬN TĂNG CA</t>
   </si>
@@ -120,34 +120,22 @@
     <t xml:space="preserve"> 16h30-17h30 Ngày 22/04/2025</t>
   </si>
   <si>
-    <t xml:space="preserve"> 16h30-17h0- Ngày 23/04/2025</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 16h30-18h00 Ngày 24/04/2025</t>
   </si>
   <si>
     <t xml:space="preserve"> 16h30-18h00 Ngày 25/04/2025</t>
   </si>
   <si>
-    <t xml:space="preserve"> 16h30-17h00 Ngày 28/04/2025</t>
-  </si>
-  <si>
     <t>UPDATE GIÁ, MÃ DV CHO LỌC DẦU</t>
   </si>
   <si>
     <t>LÀM HĐ, THÔNG BÁO ĐƠN VỊ, THÔNG BÁO VV KSK, LÀM SỔ CỦA CTY TNHH DV TÀI MINH,LÀM BÁO GIÁ KỸ THUẬT MÁY BAY,BÁO GIÁ AGRIBANK - TRUNG TÂM CNTT ,LÀM HĐ, LÀM SỔ GLOBAL VISION</t>
   </si>
   <si>
-    <t>CHỐT CP, AGRIBANK NÔNG SƠN,CHỐT CP GIAO NHẬN VẬN CHUYỂN,THẢO HĐ MÔI TRƯỜNG VIỆT TIẾN, LIÊN DOANH ĐA NĂNG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IN UPSALE LẤY MÁU TÀI MINH,LÀM HĐ,UP, LÀM SỔ HĐ CHO VIỆT TIẾN, ĐA NĂNG,LÀM BÁO GIÁ KSK MASCO,TRÌNH KÝ </t>
-  </si>
-  <si>
-    <t>BÁO GIÁ KSK CÔNG TY CỔ PHẦN MASTERTRAN,CHECK LẠI BẢNG GIÁ, MÃ DV CỦA LỌC DẦU,LÀM VIỆC LẠI VỚI BIDV QUẢNG NAM</t>
-  </si>
-  <si>
-    <t>UPDATE FILE, EMAIL KQCN GỬI MAIL CHO LỌC DẦU</t>
+    <t>IN UPSALE LẤY MÁU TÀI MINH,LÀM HĐ,UP, LÀM SỔ HĐ CHO VIỆT TIẾN, ĐA NĂNG,LÀM BÁO GIÁ KSK MASCO; CHỐT CP, AGRIBANK NÔNG SƠN,CHỐT CP GIAO NHẬN VẬN CHUYỂN,THẢO HĐ MÔI TRƯỜNG VIỆT TIẾN, LIÊN DOANH ĐA NĂNG</t>
+  </si>
+  <si>
+    <t>BÁO GIÁ KSK CÔNG TY CỔ PHẦN MASTERTRAN,CHECK LẠI BẢNG GIÁ, MÃ DV CỦA LỌC DẦU,LÀM VIỆC LẠI VỚI BIDV QUẢNG NAM; UPDATE FILE, EMAIL KQCN GỬI MAIL CHO LỌC DẦU</t>
   </si>
 </sst>
 </file>
@@ -622,10 +610,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="55" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -724,7 +712,7 @@
         <v>17</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G7" s="18"/>
     </row>
@@ -739,26 +727,26 @@
         <v>18</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="93" x14ac:dyDescent="0.35">
       <c r="A9" s="13"/>
       <c r="B9" s="19"/>
       <c r="C9" s="18"/>
       <c r="D9" s="9">
-        <v>0.50000000000000089</v>
+        <v>1.5</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A10" s="13"/>
       <c r="B10" s="19"/>
       <c r="C10" s="18"/>
@@ -769,80 +757,50 @@
         <v>20</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G10" s="18"/>
     </row>
-    <row r="11" spans="1:10" ht="62" x14ac:dyDescent="0.35">
-      <c r="A11" s="13"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="18"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="18"/>
-    </row>
-    <row r="12" spans="1:10" ht="31" x14ac:dyDescent="0.35">
-      <c r="A12" s="13"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="9">
-        <v>0.50000000000000089</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="18"/>
+        <f>SUM(D7:D10)</f>
+        <v>4.9999999999999982</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="9">
-        <f>SUM(D7:D12)</f>
+      <c r="F13" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F15" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="15"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B16" s="3" t="s">
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B14" s="3" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A7:A10"/>
     <mergeCell ref="A3:G3"/>
-    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F13:G13"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="G7:G12"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.35433070866141736" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
